--- a/Modeling/Model Plans.xlsx
+++ b/Modeling/Model Plans.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishek/code/DataDrivenAgriculture/Modeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek\Documents\GitHub\DataDrivenAgriculture\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="15855" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>1. Location, 2. Sowing Time Sugarcane(Farmer Provided), 3. Soil Nutrient (Farmer Provided), 4. Water Cycle, 5. Weather - 15 days prediction, 6. Weather Period 1, 7. Weather Period 2, 8. Wether Period 3, Weather Period 4, Weather Period 5</t>
   </si>
@@ -393,6 +390,15 @@
   </si>
   <si>
     <t>Period here is 2 months.</t>
+  </si>
+  <si>
+    <t>Model Paddy 5</t>
+  </si>
+  <si>
+    <t>Paddy Prediction - Month 5</t>
+  </si>
+  <si>
+    <t>1. Location, 2. Sowing Time Paddy(Farmer Provided), 3. Soil Nutrient (Farmer Provided), 4. Water Cycle, 5. Weather - 15 days prediction, 6. Weather Month 1, 7. Weather Month 2, 8. Wether Month 3, 9.Weather Month 4, 10. Weather Month 5</t>
   </si>
 </sst>
 </file>
@@ -496,22 +502,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -550,22 +545,18 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -573,17 +564,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -591,13 +582,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
@@ -615,13 +613,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B1:D40" totalsRowShown="0">
-  <autoFilter ref="B1:D40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B1:D41" totalsRowShown="0">
+  <autoFilter ref="B1:D41"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Model"/>
     <tableColumn id="2" name="Description"/>
@@ -894,22 +895,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B1" t="s">
@@ -922,582 +923,596 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="65" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+    <row r="2" spans="1:4" ht="63.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+    <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+    <row r="11" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+    <row r="12" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+    <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+    <row r="16" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+    <row r="22" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+    <row r="29" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+    <row r="30" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
+    <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
+    <row r="34" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="35" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
+    <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F36:J40"/>
+    <mergeCell ref="F37:J41"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modeling/Model Plans.xlsx
+++ b/Modeling/Model Plans.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek\Documents\GitHub\DataDrivenAgriculture\Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishek/code/DataDrivenAgriculture/Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="15855" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
   <si>
     <t>1. Location, 2. Sowing Time Sugarcane(Farmer Provided), 3. Soil Nutrient (Farmer Provided), 4. Water Cycle, 5. Weather - 15 days prediction, 6. Weather Period 1, 7. Weather Period 2, 8. Wether Period 3, Weather Period 4, Weather Period 5</t>
   </si>
@@ -71,15 +74,6 @@
     <t>Model Sugarcane 1</t>
   </si>
   <si>
-    <t>1. Location, 2. Sowing Time Wheat(Farmer Provided), 3. Soil Nutrient (Farmer Provided), 4. Water Cycle, 5. Weather - 15 days prediction, 6. Weather Month 1, 7. Weather Month 2, 8. Wether Month 3, Weather Month 4, Weather Month 5, Weather month 6</t>
-  </si>
-  <si>
-    <t>Wheat Prediction - Month 6</t>
-  </si>
-  <si>
-    <t>Model Wheat 6</t>
-  </si>
-  <si>
     <t>1. Location, 2. Sowing Time Wheat(Farmer Provided), 3. Soil Nutrient (Farmer Provided), 4. Water Cycle, 5. Weather - 15 days prediction, 6. Weather Month 1, 7. Weather Month 2, 8. Wether Month 3, Weather Month 4, Weather Month 5</t>
   </si>
   <si>
@@ -371,12 +365,6 @@
     <t>1. Location, 2. Sowing Time(Farmer Provided), 3. Soil Nutrient (Farmer Provided), 4. Weather - 1 month prior to sowing, 5. Weather - 15 days prediction, 6. Water Table</t>
   </si>
   <si>
-    <t>Model for Recommendation among crops</t>
-  </si>
-  <si>
-    <t>Model 0</t>
-  </si>
-  <si>
     <t>Feature for Modeling Description</t>
   </si>
   <si>
@@ -389,9 +377,6 @@
     <t>S.No.</t>
   </si>
   <si>
-    <t>Period here is 2 months.</t>
-  </si>
-  <si>
     <t>Model Paddy 5</t>
   </si>
   <si>
@@ -399,6 +384,69 @@
   </si>
   <si>
     <t>1. Location, 2. Sowing Time Paddy(Farmer Provided), 3. Soil Nutrient (Farmer Provided), 4. Water Cycle, 5. Weather - 15 days prediction, 6. Weather Month 1, 7. Weather Month 2, 8. Wether Month 3, 9.Weather Month 4, 10. Weather Month 5</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Algorithm for modeling</t>
+  </si>
+  <si>
+    <t>Model 0 Bajra</t>
+  </si>
+  <si>
+    <t>Model 0 Barley</t>
+  </si>
+  <si>
+    <t>Model 0 Cotton</t>
+  </si>
+  <si>
+    <t>Model 0 Maize</t>
+  </si>
+  <si>
+    <t>Model 0 Paddy</t>
+  </si>
+  <si>
+    <t>Model 0 Gram</t>
+  </si>
+  <si>
+    <t>Model 0 Sugarcane</t>
+  </si>
+  <si>
+    <t>Model 0 Wheat</t>
+  </si>
+  <si>
+    <t>Model for Recommendation for Bajra</t>
+  </si>
+  <si>
+    <t>Model for Recommendation for Barley</t>
+  </si>
+  <si>
+    <t>Model for Recommendation for Cotton</t>
+  </si>
+  <si>
+    <t>Model for Recommendation for Gram</t>
+  </si>
+  <si>
+    <t>Model for Recommendation for Maize</t>
+  </si>
+  <si>
+    <t>Model for Recommendation for Paddy</t>
+  </si>
+  <si>
+    <t>Model for Recommendation for Sugarcane</t>
+  </si>
+  <si>
+    <t>Model for Recommendation for Wheat</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Gradient Boosting Method</t>
+  </si>
+  <si>
+    <t>Period - 2 Months</t>
   </si>
 </sst>
 </file>
@@ -449,7 +497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,11 +507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -502,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -534,80 +577,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
-    <cellStyle name="60% - Accent3" xfId="4" builtinId="40"/>
-    <cellStyle name="60% - Accent4" xfId="6" builtinId="44"/>
-    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
+    <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="5" builtinId="44"/>
+    <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
+    <cellStyle name="Accent3" xfId="2" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -621,12 +685,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B1:D41" totalsRowShown="0">
-  <autoFilter ref="B1:D41"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B1:F47" totalsRowShown="0">
+  <autoFilter ref="B1:F47"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Model"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Feature for Modeling Description"/>
+    <tableColumn id="4" name="Algorithm for modeling" dataDxfId="1" dataCellStyle="Accent1"/>
+    <tableColumn id="5" name="RMSE" dataDxfId="0" dataCellStyle="Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -895,624 +961,990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="45.375" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="5" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="63.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    </row>
+    <row r="2" spans="1:6" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="E3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="E10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="18">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="E11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="18">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="E12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="18">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="E13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="18">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C14" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="E14" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="18">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="E15" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="17">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D16" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="E16" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="17">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="E17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="14">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D18" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="E18" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="14">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C19" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D19" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="E19" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="14">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="E20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="E21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="E22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="E23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="E24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E25" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="8">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="8">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="11">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="11">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="11">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="8">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="E35" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="8">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="23">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="E38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="7">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="E39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="E40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="7">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="E41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="7">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D42" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="E42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-    </row>
-    <row r="38" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="E43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="1">
+        <v>11237</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-    </row>
-    <row r="39" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="E44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8888</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-    </row>
-    <row r="40" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="E45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8841</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-    </row>
-    <row r="41" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="E46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="1">
+        <v>8392</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="E47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="1">
+        <v>8440</v>
+      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F37:J41"/>
+    <mergeCell ref="G43:K47"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
